--- a/stom/odk_form/form_odk_stom.xlsx
+++ b/stom/odk_form/form_odk_stom.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="271">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -111,7 +111,7 @@
 Avec les contributions de la **communauté ODK** sur [le forum d’ODK](https://forum.getodk.org).</t>
   </si>
   <si>
-    <t xml:space="preserve">stom_MD.png</t>
+    <t xml:space="preserve">stom.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">end group</t>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">select_one_from_file gn_sites.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">local_list_site</t>
+    <t xml:space="preserve">id_base_site</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -145,18 +145,6 @@
     <t xml:space="preserve">value=id_base_site,label=base_site_name</t>
   </si>
   <si>
-    <t xml:space="preserve">geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">store_gps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter un point d'écoute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${local_list_site} = 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">visite_1</t>
   </si>
   <si>
@@ -166,7 +154,7 @@
     <t xml:space="preserve">field list</t>
   </si>
   <si>
-    <t xml:space="preserve">date_heure</t>
+    <t xml:space="preserve">visit_date_min</t>
   </si>
   <si>
     <t xml:space="preserve">Date et heure :</t>
@@ -181,7 +169,7 @@
     <t xml:space="preserve">begin repeat</t>
   </si>
   <si>
-    <t xml:space="preserve">observateurs</t>
+    <t xml:space="preserve">observers</t>
   </si>
   <si>
     <t xml:space="preserve">Observat.eur.rice.s</t>
@@ -190,7 +178,7 @@
     <t xml:space="preserve">select_one_from_file gn_observateurs.csv</t>
   </si>
   <si>
-    <t xml:space="preserve">id_observateur</t>
+    <t xml:space="preserve">id_role</t>
   </si>
   <si>
     <t xml:space="preserve">minimal</t>
@@ -202,46 +190,37 @@
     <t xml:space="preserve">end repeat</t>
   </si>
   <si>
-    <t xml:space="preserve">visite_2</t>
+    <t xml:space="preserve">Visite₂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visite_suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_from_file gn_jdds.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeu de données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value=id_dataset,label=dataset_name</t>
   </si>
   <si>
     <t xml:space="preserve">select_one boolean</t>
   </si>
   <si>
-    <t xml:space="preserve">bool_jdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y a-t-il un jeu de données associé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">columns </t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_from_file gn_jdds.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_jdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeu de données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${bool_jdd} = 'true'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value=id_dataset,label=dataset_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visite_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visite_suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">observateur_debutant</t>
+    <t xml:space="preserve">debutant</t>
   </si>
   <si>
     <t xml:space="preserve">Observateur débutant ?</t>
@@ -253,13 +232,16 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
+    <t xml:space="preserve">heure</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heure de début :</t>
   </si>
   <si>
     <t xml:space="preserve">select_one list_couverture_nuageuse</t>
   </si>
   <si>
-    <t xml:space="preserve">couverture_nuageuse</t>
+    <t xml:space="preserve">nuages</t>
   </si>
   <si>
     <t xml:space="preserve">Couverture nuageuse</t>
@@ -286,7 +268,7 @@
     <t xml:space="preserve">select_one list_visibilite</t>
   </si>
   <si>
-    <t xml:space="preserve">visibilite</t>
+    <t xml:space="preserve">visi</t>
   </si>
   <si>
     <t xml:space="preserve">Visibilité</t>
@@ -295,7 +277,7 @@
     <t xml:space="preserve">integer</t>
   </si>
   <si>
-    <t xml:space="preserve">pourcentage</t>
+    <t xml:space="preserve">deneigement</t>
   </si>
   <si>
     <t xml:space="preserve">Déneigement (en %)</t>
@@ -310,7 +292,7 @@
     <t xml:space="preserve">select_one list_indice_paturage</t>
   </si>
   <si>
-    <t xml:space="preserve">indice_paturage</t>
+    <t xml:space="preserve">paturage</t>
   </si>
   <si>
     <t xml:space="preserve">Indice de pâturage</t>
@@ -319,7 +301,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">commentaire_conditions_ecoute</t>
+    <t xml:space="preserve">comments_visit</t>
   </si>
   <si>
     <t xml:space="preserve">Commentaire sur les conditions d'écoute</t>
@@ -544,12 +526,6 @@
     <t xml:space="preserve">observations</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">especes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Espèce(s) observées</t>
   </si>
   <si>
@@ -628,10 +604,7 @@
     <t xml:space="preserve">quick columns-pack</t>
   </si>
   <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comments</t>
+    <t xml:space="preserve">comments_observation</t>
   </si>
   <si>
     <t xml:space="preserve">Commentaire(s)</t>
@@ -862,10 +835,10 @@
     <t xml:space="preserve">allow_choice_duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">Workshop Appli STOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_workshop</t>
+    <t xml:space="preserve">Stom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stom_form</t>
   </si>
 </sst>
 </file>
@@ -984,7 +957,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1013,12 +986,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
         <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1076,7 +1043,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1161,16 +1128,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1181,6 +1148,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1189,15 +1160,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,11 +1180,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1249,7 +1220,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1315,7 +1286,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1342,12 +1313,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1358,19 +1329,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="46.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="47.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="28.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="10.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1460,7 +1431,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1531,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1625,15 +1596,11 @@
       <c r="S8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="A9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
@@ -1641,9 +1608,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -1653,200 +1618,200 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -1856,8 +1821,9 @@
         <v>22</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>62</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -1869,82 +1835,108 @@
       <c r="S18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="A19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="I19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20" t="s">
-        <v>29</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -1958,26 +1950,20 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -1989,19 +1975,23 @@
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -2010,7 +2000,6 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
@@ -2018,13 +2007,13 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -2045,13 +2034,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -2071,284 +2060,295 @@
       <c r="S26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
+      <c r="A27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="B32" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
+      <c r="D32" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>105</v>
+      <c r="K34" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="A38" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="C39" s="23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="10"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>70</v>
+        <v>119</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2356,44 +2356,88 @@
         <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O43" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="S43" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>0</v>
@@ -2402,24 +2446,24 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O44" s="26" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>0</v>
@@ -2428,24 +2472,24 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>128</v>
+        <v>138</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>134</v>
+        <v>118</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>0</v>
@@ -2454,301 +2498,315 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O46" s="26" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O47" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="G47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="O48" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O49" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="O50" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="G51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O51" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="G53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O53" s="26"/>
+        <v>155</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>160</v>
+        <v>18</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="10" t="s">
+      <c r="A57" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="26"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="27" t="s">
+      <c r="C61" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="28" t="s">
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="29"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
       <c r="J64" s="30"/>
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
@@ -2760,481 +2818,354 @@
       <c r="R64" s="30"/>
       <c r="S64" s="30"/>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="31" t="s">
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="H65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-      <c r="I66" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+    </row>
+    <row r="68" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-    </row>
-    <row r="69" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="10" t="s">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" s="31" t="s">
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-    </row>
-    <row r="72" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="33"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I73" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="J73" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3" t="s">
-        <v>190</v>
-      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="33"/>
-      <c r="S74" s="33"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="33"/>
-      <c r="R75" s="33"/>
-      <c r="S75" s="33"/>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="33"/>
-      <c r="R76" s="33"/>
-      <c r="S76" s="33"/>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+      <c r="Q74" s="30"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="32"/>
+      <c r="Q75" s="32"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="32"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="34"/>
+      <c r="O76" s="34"/>
+      <c r="P76" s="34"/>
+      <c r="Q76" s="34"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="34"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="J77" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="33"/>
-      <c r="S77" s="33"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="33"/>
-      <c r="R78" s="33"/>
-      <c r="S78" s="33"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="33"/>
-      <c r="R79" s="33"/>
-      <c r="S79" s="33"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="33"/>
-      <c r="S80" s="33"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="33"/>
-      <c r="S81" s="33"/>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="33"/>
-      <c r="Q82" s="33"/>
-      <c r="R82" s="33"/>
-      <c r="S82" s="33"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3254,508 +3185,508 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.45"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="36" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="8" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C8" s="40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+    <row r="9" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="5" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+    <row r="10" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C10" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="37" t="s">
+    </row>
+    <row r="11" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="C11" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="8" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+    </row>
+    <row r="12" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B13" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C14" s="38" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+    <row r="15" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B15" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+    <row r="16" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B16" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" s="37" t="s">
+    <row r="17" s="36" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="40"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="B18" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="12" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-    </row>
-    <row r="13" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" s="37" t="s">
+    </row>
+    <row r="20" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="37" t="s">
+    <row r="21" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="37" t="s">
+    <row r="22" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+    </row>
+    <row r="23" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="B23" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="40" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="17" s="35" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="C24" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="37" t="s">
+    </row>
+    <row r="25" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C25" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="B20" s="37" t="s">
+    <row r="26" s="40" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" s="36" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+    </row>
+    <row r="28" s="42" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="B28" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" s="42" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="37" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="21" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="B21" s="37" t="s">
+      <c r="C29" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="C21" s="37" t="s">
+    </row>
+    <row r="30" s="42" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="37" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="22" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-    </row>
-    <row r="23" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="C30" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B24" s="39" t="s">
+    </row>
+    <row r="31" s="42" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C31" s="37" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="25" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="37" t="s">
+    <row r="32" s="42" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C32" s="37" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="26" s="39" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" s="35" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-    </row>
-    <row r="28" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" s="41" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>256</v>
+        <v>105</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>258</v>
+        <v>105</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>259</v>
+        <v>105</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>261</v>
+        <v>105</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>262</v>
+        <v>105</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>263</v>
+        <v>105</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>264</v>
+        <v>105</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>265</v>
+        <v>105</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3776,45 +3707,45 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.56640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>277</v>
+      <c r="A1" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" s="46" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="A2" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46" t="s">
         <v>22</v>
       </c>
     </row>

--- a/stom/odk_form/form_odk_stom.xlsx
+++ b/stom/odk_form/form_odk_stom.xlsx
@@ -190,7 +190,7 @@
     <t xml:space="preserve">end repeat</t>
   </si>
   <si>
-    <t xml:space="preserve">Visite₂</t>
+    <t xml:space="preserve">visite_2</t>
   </si>
   <si>
     <t xml:space="preserve">Visite_suite</t>
@@ -1316,12 +1316,12 @@
   <dimension ref="A1:S77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.45"/>
@@ -3189,7 +3189,7 @@
       <selection pane="topLeft" activeCell="A46" activeCellId="0" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.78"/>
@@ -3711,7 +3711,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.65"/>
